--- a/random_forest_gridsearch.xlsx
+++ b/random_forest_gridsearch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="440" windowWidth="27940" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="440" windowWidth="27940" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="gridsearch_accuracy_test" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_test.csv" thousands=" " comma="1" semicolon="1">
+  <connection id="1" name="gridsearch_accuracy_test" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_test.csv" thousands=" " comma="1" semicolon="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -43,8 +43,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="gridsearch_accuracy_test1" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_test.csv" thousands=" " comma="1" semicolon="1">
+  <connection id="2" name="gridsearch_accuracy_test1" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_test.csv" thousands=" " comma="1" semicolon="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -54,8 +54,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="gridsearch_accuracy_train" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_train.csv" thousands=" " tab="0" semicolon="1">
+  <connection id="3" name="gridsearch_accuracy_train" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_train.csv" thousands=" " tab="0" semicolon="1">
       <textFields count="4">
         <textField/>
         <textField/>
@@ -252,12 +252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -265,23 +259,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -302,18 +284,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_test_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_train" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,7 +338,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_train" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_test_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,7 +607,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,462 +620,462 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="29" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C3" s="32">
+      <c r="C3" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="33">
+      <c r="D3" s="24">
         <v>4</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="24">
         <v>8</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="24">
         <v>16</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="24">
         <v>32</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="24">
         <v>64</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="24">
         <v>128</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="25">
         <v>256</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="32">
+      <c r="K3" s="6"/>
+      <c r="L3" s="23">
         <v>2</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="24">
         <v>4</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="24">
         <v>8</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="24">
         <v>16</v>
       </c>
-      <c r="P3" s="33">
+      <c r="P3" s="24">
         <v>32</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="24">
         <v>64</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="24">
         <v>128</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="25">
         <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8">
         <v>0.85303333333333298</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>0.86468333333333303</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="8">
         <v>0.86431666666666596</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>0.86809999999999898</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="10">
+      <c r="K4" s="8"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="8">
         <v>0.60880000000000001</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="8">
         <v>0.63260000000000005</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="8">
         <v>0.633099999999999</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="9">
         <v>0.64539999999999897</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="34"/>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="10">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8">
         <v>0.85394999999999899</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>0.86486666666666601</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>0.86548333333333305</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>0.86916666666666598</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="10">
+      <c r="K5" s="8"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="8">
         <v>0.60140000000000005</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="8">
         <v>0.62539999999999896</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="8">
         <v>0.63380000000000003</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="9">
         <v>0.637099999999999</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="34"/>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8">
         <v>0.97594999999999898</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>0.97423333333333295</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>0.97135000000000005</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>0.96968333333333301</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="10">
+      <c r="K6" s="8"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="8">
         <v>0.72030000000000005</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="8">
         <v>0.72250000000000003</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="8">
         <v>0.72250000000000003</v>
       </c>
-      <c r="S6" s="11">
+      <c r="S6" s="9">
         <v>0.71379999999999899</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="34"/>
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="10">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="8">
         <v>0.99546666666666594</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>0.99460000000000004</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>0.99273333333333302</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <v>0.99099999999999899</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="10">
+      <c r="K7" s="8"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="8">
         <v>0.7671</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="8">
         <v>0.76559999999999895</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="8">
         <v>0.75509999999999899</v>
       </c>
-      <c r="S7" s="11">
+      <c r="S7" s="9">
         <v>0.74829999999999897</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="34"/>
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="10">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8">
         <v>0.99944999999999895</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>0.99928333333333297</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <v>0.99861666666666604</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>0.99804999999999899</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="10">
+      <c r="K8" s="8"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="8">
         <v>0.79859999999999898</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="8">
         <v>0.78459999999999896</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="8">
         <v>0.77629999999999899</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="9">
         <v>0.76370000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="34"/>
       <c r="B9">
         <v>50</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="26">
         <v>0.999966666666666</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="10">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="8">
         <v>0.999966666666666</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>0.99990000000000001</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>0.99978333333333302</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="20">
+      <c r="K9" s="8"/>
+      <c r="L9" s="14">
         <v>0.83620000000000005</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="15">
         <v>0.83309999999999895</v>
       </c>
-      <c r="N9" s="21">
+      <c r="N9" s="15">
         <v>0.83640000000000003</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="15">
         <v>0.82730000000000004</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="15">
         <v>0.81630000000000003</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="8">
         <v>0.80059999999999898</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="8">
         <v>0.78890000000000005</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="9">
         <v>0.77159999999999895</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="34"/>
       <c r="B10">
         <v>100</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="20">
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="14">
         <v>0.84589999999999899</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="15">
         <v>0.84750000000000003</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="15">
         <v>0.84350000000000003</v>
       </c>
-      <c r="O10" s="21">
+      <c r="O10" s="15">
         <v>0.83399999999999896</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="15">
         <v>0.82350000000000001</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="9"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="34"/>
       <c r="B11">
         <v>200</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="20">
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="14">
         <v>0.85550000000000004</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="15">
         <v>0.85360000000000003</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N11" s="15">
         <v>0.84640000000000004</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O11" s="15">
         <v>0.83720000000000006</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="15">
         <v>0.82720000000000005</v>
       </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
     </row>
     <row r="12" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+      <c r="A12" s="34"/>
       <c r="B12">
         <v>1000</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="22">
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="16">
         <v>0.86209999999999898</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="17">
         <v>0.85840000000000005</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="17">
         <v>0.85140000000000005</v>
       </c>
-      <c r="O12" s="23">
+      <c r="O12" s="17">
         <v>0.84079999999999899</v>
       </c>
-      <c r="P12" s="23">
+      <c r="P12" s="17">
         <v>0.82750000000000001</v>
       </c>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="19"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="A13" s="22"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
@@ -1134,32 +1134,32 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/random_forest_gridsearch.xlsx
+++ b/random_forest_gridsearch.xlsx
@@ -9,15 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="440" windowWidth="27940" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="440" windowWidth="27940" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="gridsearch_accuracy_test" localSheetId="0">Feuil1!$P$4:$S$9</definedName>
+    <definedName name="gridsearch_accuracy_test" localSheetId="1">Feuil2!$F$9:$H$11</definedName>
     <definedName name="gridsearch_accuracy_test_1" localSheetId="0">Feuil1!$L$9:$P$12</definedName>
+    <definedName name="gridsearch_accuracy_test_2" localSheetId="0">Feuil1!$C$21:$D$23</definedName>
     <definedName name="gridsearch_accuracy_train" localSheetId="0">Feuil1!$G$4:$J$9</definedName>
+    <definedName name="gridsearch_accuracy_train" localSheetId="1">Feuil2!$B$9:$D$11</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,31 +37,35 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="gridsearch_accuracy_test" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_test.csv" thousands=" " comma="1" semicolon="1">
-      <textFields count="4">
+  <connection id="1" name="gridsearch_accuracy_test" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_test.csv" thousands=" " comma="1" semicolon="1">
+      <textFields count="2">
         <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="gridsearch_accuracy_test1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_test.csv" thousands=" " semicolon="1">
+      <textFields count="3">
         <textField/>
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="gridsearch_accuracy_test1" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_test.csv" thousands=" " comma="1" semicolon="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
+  <connection id="3" name="gridsearch_accuracy_train" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_train.csv" thousands=" " comma="1" semicolon="1">
+      <textFields count="3">
         <textField/>
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="gridsearch_accuracy_train" type="6" refreshedVersion="0" deleted="1" background="1" saveData="1">
-    <textPr fileType="mac" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_train.csv" thousands=" " tab="0" semicolon="1">
-      <textFields count="4">
-        <textField/>
+  <connection id="4" name="gridsearch_accuracy_train1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10000" sourceFile="/Users/carl/Documents/uni/RecFormesAnalyseIm/Analyse_dimage_avance_proj/gridsearch_accuracy_train.csv" thousands=" " semicolon="1">
+      <textFields count="3">
         <textField/>
         <textField/>
         <textField/>
@@ -68,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Maximum features to consider</t>
   </si>
@@ -79,7 +87,52 @@
     <t>Training</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>Test accuracy</t>
+  </si>
+  <si>
+    <t>Maximum features to consider (fraction)</t>
+  </si>
+  <si>
+    <t>0.0005</t>
+  </si>
+  <si>
+    <t>4 words</t>
+  </si>
+  <si>
+    <t>64 words</t>
+  </si>
+  <si>
+    <t>8 words</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>6 words</t>
   </si>
 </sst>
 </file>
@@ -124,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -243,12 +296,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -314,6 +376,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,15 +405,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_test_2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_test_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_test" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_train" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_test" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_test" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_test_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="gridsearch_accuracy_train" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,19 +691,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" customWidth="1"/>
-    <col min="12" max="19" width="8.5" customWidth="1"/>
+    <col min="3" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="13" width="7.83203125" customWidth="1"/>
+    <col min="14" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="19" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -653,7 +742,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="4"/>
       <c r="L2" s="30" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
@@ -1088,81 +1177,260 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="A16" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="41"/>
+      <c r="C16" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="38">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8">
+        <v>0.73199999999999898</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="38">
+        <v>100</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8">
+        <v>0.84809999999999897</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.84809999999999897</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.84589999999999899</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.83799999999999897</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.82589999999999897</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.81159999999999899</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.80489999999999895</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.79469999999999896</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
+      <c r="B20" s="39">
+        <v>200</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.85570000000000002</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.85550000000000004</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="8">
+        <v>0.81669999999999898</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0.79320000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="39">
+        <v>500</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.86209999999999898</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.86209999999999898</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.86209999999999898</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.85999999999999899</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="40">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.86229999999999896</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.86229999999999896</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="40">
+        <v>2000</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.86439999999999895</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.86439999999999895</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A16:B17"/>
     <mergeCell ref="C9:G12"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="C1:S1"/>
@@ -1170,6 +1438,18 @@
     <mergeCell ref="C2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="G4:J8 H9:J9 C9">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4:S8 Q9:S9">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1181,20 +1461,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:S8 Q9:S9">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="L9:P12">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1206,18 +1474,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:S13 L4:S12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:K24">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1230,6 +1486,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:J12 C4:J8 C13:J13 C9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:S12">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:K18 G19:K20">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1241,8 +1521,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15:N20">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="D18:K20 E21:K21">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1253,8 +1533,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15:N24">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="C18:K25">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1265,7 +1545,449 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:S12">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="4" width="8.1640625" customWidth="1"/>
+    <col min="6" max="8" width="8.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="45">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C2" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="D2" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G2" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="H2" s="45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="45">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.59561666666666602</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.59561666666666602</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.59561666666666602</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.296899999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.296899999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.296899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="45">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.60528333333333295</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.60528333333333295</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.60528333333333295</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.30459999999999898</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.30459999999999898</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.30459999999999898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="45">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.60528333333333295</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.60528333333333295</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.60528333333333295</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.30480000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="45">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C8" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G8" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="45">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.92984999999999896</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.92984999999999896</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.92984999999999896</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <v>0.36809999999999898</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.36809999999999898</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.36809999999999898</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="45">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>0.38569999999999899</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.38569999999999899</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.38569999999999899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="45">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>0.38779999999999898</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.38779999999999898</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.38779999999999898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="45">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C14" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="D14" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G14" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="45">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.98104999999999898</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.98104999999999898</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.98104999999999898</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>0.42059999999999897</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.42059999999999897</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.42059999999999897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="45">
+        <v>100</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.99419999999999897</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.99419999999999897</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.99419999999999897</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.45350000000000001</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.45350000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="45">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.99421666666666597</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.99421666666666597</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.99421666666666597</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>0.459699999999999</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.459699999999999</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.459699999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C20" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="D20" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G20" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="H20" s="45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="45">
+        <v>10</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.99228333333333296</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.99228333333333296</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.99228333333333296</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.49690000000000001</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.49690000000000001</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.49690000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="45">
+        <v>100</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.999983333333333</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.999983333333333</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.999983333333333</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.57250000000000001</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.57250000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="45">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.999983333333333</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.999983333333333</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.999983333333333</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.584699999999999</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.584699999999999</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.584699999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F9:H11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:H17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:H5">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:H23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
